--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/557edc836ab4960f/Dokumenter/Databaser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{3FCF2569-5BF1-4099-A278-053608C4E6ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C20D2B-3D3A-4F18-8DFC-17EA200E0480}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="450" windowWidth="10395" windowHeight="7800" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,18 +496,18 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C20D2B-3D3A-4F18-8DFC-17EA200E0480}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F198B91A-5DBD-45C3-B998-09FF1B1C1178}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>Eier</t>
   </si>
@@ -136,19 +136,76 @@
   </si>
   <si>
     <t>105881_qi75679</t>
+  </si>
+  <si>
+    <t>DB_A46E6D_sponsor</t>
+  </si>
+  <si>
+    <t>DB_A46E6D_pms</t>
+  </si>
+  <si>
+    <t>DB_A46E6D_admin</t>
+  </si>
+  <si>
+    <t>sql6002.site4now.net</t>
+  </si>
+  <si>
+    <t>DB_A46E6D_Sponsor_admin</t>
+  </si>
+  <si>
+    <t>DB_A46E6D_pms_admin</t>
+  </si>
+  <si>
+    <t>DB_A46E6D_Admin_admin</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_PMSTest;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_PMS;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_Sponsor;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_Admin;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_AdminTest;</t>
+  </si>
+  <si>
+    <t>AdminMember</t>
+  </si>
+  <si>
+    <t>crew</t>
+  </si>
+  <si>
+    <t>PMSMember</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,11 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,19 +551,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4541937-B5CE-4A20-80A9-B8C27113714F}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
@@ -515,26 +573,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -686,11 +744,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" t="s">
         <v>31</v>
       </c>
@@ -759,9 +817,97 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F198B91A-5DBD-45C3-B998-09FF1B1C1178}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DC4A49-8200-4E0E-A8EA-DA428B508665}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K16" sqref="K15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
@@ -678,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
@@ -687,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DC4A49-8200-4E0E-A8EA-DA428B508665}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E221E47-18E2-412C-ACAD-E1B954AF9917}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
+    <workbookView xWindow="13005" yWindow="3255" windowWidth="12735" windowHeight="11835" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K15:K16"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E221E47-18E2-412C-ACAD-E1B954AF9917}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020E03F-80EA-494A-A50C-AE0214E06C68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13005" yWindow="3255" windowWidth="12735" windowHeight="11835" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4541937-B5CE-4A20-80A9-B8C27113714F}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020E03F-80EA-494A-A50C-AE0214E06C68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914D1D14-D91D-4F3E-8551-912FE96F4ED6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13005" yWindow="3255" windowWidth="12735" windowHeight="11835" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="48">
   <si>
     <t>Eier</t>
   </si>
@@ -81,18 +81,6 @@
     <t>105881_hv66488</t>
   </si>
   <si>
-    <t>Selskap: selskap-105881.mssql.stwcp.net</t>
-  </si>
-  <si>
-    <t>Admin: admin-105881.mssql.stwcp.net</t>
-  </si>
-  <si>
-    <t>PMS: pms-105881.mssql.stwcp.net</t>
-  </si>
-  <si>
-    <t>Sponsor: sponsor-105881.mssql.stwcp.net</t>
-  </si>
-  <si>
     <t>Maine1953</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>selskaptest-105881.mssql.stwcp.net</t>
   </si>
   <si>
-    <t>sponsortest-105881.mssql.stwcp.net</t>
-  </si>
-  <si>
     <t>pmstest-105881.mssql.stwcp.net</t>
   </si>
   <si>
@@ -132,68 +117,65 @@
     <t>105881_od92908</t>
   </si>
   <si>
-    <t>105881_fk81943</t>
-  </si>
-  <si>
-    <t>105881_qi75679</t>
-  </si>
-  <si>
-    <t>DB_A46E6D_sponsor</t>
-  </si>
-  <si>
-    <t>DB_A46E6D_pms</t>
-  </si>
-  <si>
-    <t>DB_A46E6D_admin</t>
-  </si>
-  <si>
-    <t>sql6002.site4now.net</t>
-  </si>
-  <si>
-    <t>DB_A46E6D_Sponsor_admin</t>
-  </si>
-  <si>
-    <t>DB_A46E6D_pms_admin</t>
-  </si>
-  <si>
-    <t>DB_A46E6D_Admin_admin</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_PMSTest;</t>
-  </si>
-  <si>
-    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_PMS;</t>
-  </si>
-  <si>
-    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_Sponsor;</t>
-  </si>
-  <si>
-    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_Admin;</t>
-  </si>
-  <si>
-    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sql6002.site4now.net;UID=m314alta;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_AdminTest;</t>
-  </si>
-  <si>
-    <t>AdminMember</t>
-  </si>
-  <si>
-    <t>crew</t>
-  </si>
-  <si>
-    <t>PMSMember</t>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=admintest-105881.mssql.stwcp.net;UID=105881-mc66918;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-admin;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=admintest-105881.mssql.stwcp.net;UID=105881_kr28513;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_Admin;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=pms-105881.mssql.stwcp.net;UID=105881-sc66800;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-pms;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=pmstest-105881.mssql.stwcp.net;UID=105881-jr87416;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-pmstest;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=selskap-105881.mssql.stwcp.net;UID=105881_lt85170;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-selskap;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=sponsor-105881.mssql.stwcp.net;UID=105881_da56307;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-sponsor;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=selskaptest-105881.mssql.stwcp.net;UID=105881_wa57856;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-selskaptest;</t>
+  </si>
+  <si>
+    <t>admin-105881.mssql.stwcp.net</t>
+  </si>
+  <si>
+    <t>pms-105881.mssql.stwcp.net</t>
+  </si>
+  <si>
+    <t>selskap-105881.mssql.stwcp.net</t>
+  </si>
+  <si>
+    <t>sponsor-105881.mssql.stwcp.net</t>
+  </si>
+  <si>
+    <t>M314Admin</t>
+  </si>
+  <si>
+    <t>M314AdminTest</t>
+  </si>
+  <si>
+    <t>M314PMS</t>
+  </si>
+  <si>
+    <t>M314PMSTest</t>
+  </si>
+  <si>
+    <t>M314Selskap</t>
+  </si>
+  <si>
+    <t>M314SelskapTest</t>
+  </si>
+  <si>
+    <t>M314Sponsor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,21 +184,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -224,19 +229,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4541937-B5CE-4A20-80A9-B8C27113714F}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,359 +685,331 @@
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="L6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12">
+        <v>6</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
         <v>36</v>
       </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
-        <v>48</v>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B7:D7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914D1D14-D91D-4F3E-8551-912FE96F4ED6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88950E7D-B284-42E7-A9E7-4167D01E6FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
+    <workbookView xWindow="8400" yWindow="3765" windowWidth="18735" windowHeight="11835" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Eier</t>
   </si>
@@ -169,6 +169,21 @@
   </si>
   <si>
     <t>M314Sponsor</t>
+  </si>
+  <si>
+    <t>105881_xj61802</t>
+  </si>
+  <si>
+    <t>pvs-105881.mssql.stwcp.net</t>
+  </si>
+  <si>
+    <t>105881_ah72261</t>
+  </si>
+  <si>
+    <t>M314PVS</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=pvs-105881.mssql.stwcp.net;UID=105881-ah72261;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-pvs;</t>
   </si>
 </sst>
 </file>
@@ -313,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,6 +372,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4541937-B5CE-4A20-80A9-B8C27113714F}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,38 +992,126 @@
       </c>
       <c r="J10" s="15"/>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="27"/>
+    </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="12">
+        <v>9</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88950E7D-B284-42E7-A9E7-4167D01E6FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D826B-921C-42B6-910F-8112C498F538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="3765" windowWidth="18735" windowHeight="11835" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Eier</t>
   </si>
@@ -184,6 +184,21 @@
   </si>
   <si>
     <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=pvs-105881.mssql.stwcp.net;UID=105881-ah72261;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-pvs;</t>
+  </si>
+  <si>
+    <t>M314PVSTest</t>
+  </si>
+  <si>
+    <t>pvstest-105881.mssql.stwcp.net</t>
+  </si>
+  <si>
+    <t>105881_fv96955</t>
+  </si>
+  <si>
+    <t>105881_eh47088</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=pvstest-105881.mssql.stwcp.net;UID=105881-eh47088;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-pvstest;</t>
   </si>
 </sst>
 </file>
@@ -236,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -324,11 +339,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,6 +419,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -689,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4541937-B5CE-4A20-80A9-B8C27113714F}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,17 +1084,17 @@
       <c r="I13" s="11"/>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="30">
         <v>9</v>
       </c>
       <c r="H14" s="11"/>
@@ -1054,9 +1105,11 @@
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="27"/>
+      <c r="E15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="27"/>
@@ -1065,53 +1118,106 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="27"/>
+      <c r="E16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="27"/>
     </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="27"/>
+    </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="30">
+        <v>4</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="E22" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
+      <c r="G25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K25" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D826B-921C-42B6-910F-8112C498F538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52D3449-08DF-4C2B-AF89-895E08069DA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52D3449-08DF-4C2B-AF89-895E08069DA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3485CC-4C8B-4EAF-B6BA-76206488A881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
+    <workbookView xWindow="2250" yWindow="7590" windowWidth="21600" windowHeight="11385" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>105881_od92908</t>
   </si>
   <si>
-    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=admintest-105881.mssql.stwcp.net;UID=105881-mc66918;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-admin;</t>
-  </si>
-  <si>
     <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=admintest-105881.mssql.stwcp.net;UID=105881_kr28513;PWD=Maine1953;APP=Microsoft Office;DATABASE=DB_A46E6D_Admin;</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=pvstest-105881.mssql.stwcp.net;UID=105881-eh47088;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-pvstest;</t>
+  </si>
+  <si>
+    <t>ODBC;DRIVER=SQL Server Native Client 10.0;SERVER=admintest-105881.mssql.stwcp.net;UID=105881-mc66918;PWD=Maine1953;APP=Microsoft Office;DATABASE=105881-admintest;</t>
   </si>
 </sst>
 </file>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4541937-B5CE-4A20-80A9-B8C27113714F}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,44 +801,44 @@
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
       <c r="H2" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
       <c r="K2" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="19"/>
       <c r="H3" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="19"/>
       <c r="K3" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
@@ -952,17 +952,17 @@
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="H7" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
@@ -1048,7 +1048,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="27"/>
       <c r="E11" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
@@ -1061,7 +1061,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="27"/>
       <c r="E12" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19"/>
@@ -1074,7 +1074,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="27"/>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>20</v>
@@ -1089,7 +1089,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>18</v>
@@ -1106,7 +1106,7 @@
       <c r="C15" s="11"/>
       <c r="D15" s="27"/>
       <c r="E15" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
@@ -1119,7 +1119,7 @@
       <c r="C16" s="11"/>
       <c r="D16" s="27"/>
       <c r="E16" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
@@ -1132,7 +1132,7 @@
       <c r="C17" s="11"/>
       <c r="D17" s="27"/>
       <c r="E17" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>20</v>
@@ -1147,7 +1147,7 @@
       <c r="C18" s="11"/>
       <c r="D18" s="27"/>
       <c r="E18" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>18</v>
@@ -1172,28 +1172,28 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
@@ -1201,24 +1201,24 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3485CC-4C8B-4EAF-B6BA-76206488A881}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B633AA4C-9C79-4127-8EF0-1D7F00901C9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="7590" windowWidth="21600" windowHeight="11385" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
+    <workbookView xWindow="2190" yWindow="6615" windowWidth="21600" windowHeight="11385" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerha\Documents\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B633AA4C-9C79-4127-8EF0-1D7F00901C9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D5EE6-CE61-48B3-880C-16122C0B9CBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="6615" windowWidth="21600" windowHeight="11385" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
+    <workbookView xWindow="3132" yWindow="2604" windowWidth="17280" windowHeight="9024" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,26 +742,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4541937-B5CE-4A20-80A9-B8C27113714F}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
     <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="2"/>
+    <col min="13" max="13" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
         <v>40</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="L2" s="16"/>
       <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>36</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -876,7 +876,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -917,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>41</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="J7" s="7"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="26" t="s">
         <v>22</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="27"/>
@@ -1056,7 +1056,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="27"/>
@@ -1069,7 +1069,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="27"/>
@@ -1084,7 +1084,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="27"/>
@@ -1101,7 +1101,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="27"/>
@@ -1114,7 +1114,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="27"/>
@@ -1127,7 +1127,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="27"/>
@@ -1142,7 +1142,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="27"/>
@@ -1159,7 +1159,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="27"/>
@@ -1170,27 +1170,27 @@
       <c r="I19" s="11"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D25" s="2"/>
       <c r="E25" t="s">
         <v>51</v>
@@ -1198,7 +1198,7 @@
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
       <c r="E26" t="s">
         <v>56</v>
@@ -1206,17 +1206,17 @@
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
         <v>34</v>
       </c>

--- a/Source/Navn og passord.xlsx
+++ b/Source/Navn og passord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerha\Documents\MaineBoat\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95D5EE6-CE61-48B3-880C-16122C0B9CBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C25514-2447-48BB-A2A4-C2931395A7FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="2604" windowWidth="17280" windowHeight="9024" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0BC954F-E872-4AD9-8DED-6C96764371E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,26 +742,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4541937-B5CE-4A20-80A9-B8C27113714F}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="2"/>
+    <col min="13" max="13" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>40</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="L2" s="16"/>
       <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>36</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -876,7 +876,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -917,7 +917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>41</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="J7" s="7"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>22</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="27"/>
@@ -1056,7 +1056,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="27"/>
@@ -1069,7 +1069,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="27"/>
@@ -1084,7 +1084,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="27"/>
@@ -1101,7 +1101,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="27"/>
@@ -1114,7 +1114,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="27"/>
@@ -1127,7 +1127,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="27"/>
@@ -1142,7 +1142,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="27"/>
@@ -1159,7 +1159,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="27"/>
@@ -1170,27 +1170,27 @@
       <c r="I19" s="11"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
       <c r="E25" t="s">
         <v>51</v>
@@ -1198,7 +1198,7 @@
       <c r="G25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
       <c r="E26" t="s">
         <v>56</v>
@@ -1206,17 +1206,17 @@
       <c r="G26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>34</v>
       </c>
